--- a/soccer/php/result/2016-09-22-125704.xlsx
+++ b/soccer/php/result/2016-09-22-125704.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\just4test\xampp\htdocs\sephiroth\Wtemplate\soccer\php\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\zzc\WTemplate\soccer\php\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="2016-09-22-125614" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -671,7 +671,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -679,7 +679,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -687,7 +687,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="major"/>
@@ -696,7 +696,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -705,7 +705,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -714,7 +714,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -722,7 +722,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -730,7 +730,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -738,7 +738,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -746,7 +746,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -755,7 +755,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -764,7 +764,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -772,7 +772,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -781,7 +781,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -789,7 +789,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -798,7 +798,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -807,7 +807,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -815,14 +815,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1268,48 +1268,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1325,7 +1325,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1589,15 +1589,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:T78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="25.875" customWidth="1"/>
-    <col min="16" max="20" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="20" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
